--- a/data/kim2020viral/kim2020viral.xlsx
+++ b/data/kim2020viral/kim2020viral.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fionaxiao/Desktop/💩/SheddingHub/Challenger2022/1-KimJY2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fionaxiao/Desktop/shedding-hub/data/kim2020viral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CB14B91-D901-A049-B2E5-D96A8C0CACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC41A98-4959-1641-ADC6-15B9E8AA4872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="760" windowWidth="27240" windowHeight="16240" xr2:uid="{4A3A77D9-3CB4-3B4A-85E5-EADE8C06CB15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="16">
   <si>
     <t>Day</t>
   </si>
@@ -47,13 +47,7 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>LOD</t>
-  </si>
-  <si>
     <t>Ctvalue</t>
-  </si>
-  <si>
-    <t>SevMax3</t>
   </si>
   <si>
     <t>PatientID</t>
@@ -62,13 +56,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>Moderate</t>
-  </si>
-  <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>Mild</t>
   </si>
   <si>
     <t xml:space="preserve">Type </t>
@@ -80,10 +68,22 @@
     <t>swab RdRp estimated viral copy/mL</t>
   </si>
   <si>
-    <t>sputum RdRp</t>
+    <t>ud</t>
   </si>
   <si>
-    <t>ud</t>
+    <t>sputum RdRp estimated viral copy/mL</t>
+  </si>
+  <si>
+    <t>swab E</t>
+  </si>
+  <si>
+    <t>sputum E</t>
+  </si>
+  <si>
+    <t>stool RdRp</t>
+  </si>
+  <si>
+    <t>stool E</t>
   </si>
 </sst>
 </file>
@@ -455,20 +455,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA1B1AD-FEF0-AB4A-965C-49BDF551413D}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -483,16 +483,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -503,22 +497,19 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>2690</v>
+        <v>25.05</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -529,22 +520,19 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>2690</v>
+        <v>28.33</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -555,22 +543,19 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>2690</v>
+        <v>32.15</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -581,22 +566,19 @@
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>2690</v>
+        <v>28.26</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -607,22 +589,19 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>2690</v>
+        <v>28.56</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -633,22 +612,19 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>2690</v>
+        <v>29.66</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -659,22 +635,19 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>2690</v>
+        <v>30.38</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -685,22 +658,19 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>2690</v>
+        <v>33.4</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>11</v>
       </c>
@@ -711,22 +681,19 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>2690</v>
+        <v>35.090000000000003</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>12</v>
       </c>
@@ -737,22 +704,19 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>2690</v>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>13</v>
       </c>
@@ -763,22 +727,19 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>2690</v>
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>14</v>
       </c>
@@ -789,22 +750,19 @@
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>2690</v>
+        <v>33.270000000000003</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
@@ -815,22 +773,19 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>2690</v>
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16</v>
       </c>
@@ -841,22 +796,19 @@
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>2690</v>
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -867,25 +819,19 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>35.43</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="E16">
-        <v>2690</v>
-      </c>
-      <c r="F16">
-        <v>35.43</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -896,25 +842,19 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>26.89</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
         <v>9</v>
       </c>
-      <c r="E17">
-        <v>2690</v>
-      </c>
-      <c r="F17">
-        <v>26.89</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -925,25 +865,19 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
         <v>9</v>
       </c>
-      <c r="E18">
-        <v>2690</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -954,25 +888,19 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>32.61</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="E19">
-        <v>2690</v>
-      </c>
-      <c r="F19">
-        <v>32.61</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -983,25 +911,19 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="E20">
-        <v>2690</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1012,25 +934,19 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
         <v>9</v>
       </c>
-      <c r="E21">
-        <v>2690</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1041,25 +957,19 @@
         <v>55</v>
       </c>
       <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
         <v>9</v>
       </c>
-      <c r="E22">
-        <v>2690</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1070,25 +980,19 @@
         <v>55</v>
       </c>
       <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
         <v>9</v>
       </c>
-      <c r="E23">
-        <v>2690</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1099,25 +1003,19 @@
         <v>55</v>
       </c>
       <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
         <v>9</v>
       </c>
-      <c r="E24">
-        <v>2690</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1128,25 +1026,19 @@
         <v>55</v>
       </c>
       <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="E25">
-        <v>2690</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1157,25 +1049,19 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>36.69</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
         <v>9</v>
       </c>
-      <c r="E26">
-        <v>2690</v>
-      </c>
-      <c r="F26">
-        <v>36.69</v>
-      </c>
-      <c r="G26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1186,25 +1072,19 @@
         <v>55</v>
       </c>
       <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
         <v>9</v>
       </c>
-      <c r="E27">
-        <v>2690</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1215,22 +1095,19 @@
         <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>27.52</v>
       </c>
       <c r="F28">
-        <v>27.52</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1241,22 +1118,19 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>22.05</v>
       </c>
       <c r="F29">
-        <v>22.05</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1267,22 +1141,19 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>30.99</v>
       </c>
       <c r="F30">
-        <v>30.99</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>7</v>
       </c>
@@ -1293,22 +1164,19 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>24.92</v>
       </c>
       <c r="F31">
-        <v>24.92</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -1319,22 +1187,19 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>27.36</v>
       </c>
       <c r="F32">
-        <v>27.36</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>9</v>
       </c>
@@ -1345,22 +1210,19 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10</v>
       </c>
@@ -1371,22 +1233,19 @@
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>29.7</v>
       </c>
       <c r="F34">
-        <v>29.7</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>11</v>
       </c>
@@ -1397,22 +1256,19 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>29.96</v>
       </c>
       <c r="F35">
-        <v>29.96</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>12</v>
       </c>
@@ -1423,22 +1279,19 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>32.5</v>
       </c>
       <c r="F36">
-        <v>32.5</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>13</v>
       </c>
@@ -1449,22 +1302,19 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>32.630000000000003</v>
       </c>
       <c r="F37">
-        <v>32.630000000000003</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1475,22 +1325,19 @@
         <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>15</v>
       </c>
@@ -1501,22 +1348,19 @@
         <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>16</v>
       </c>
@@ -1527,22 +1371,19 @@
         <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>14</v>
       </c>
@@ -1553,25 +1394,19 @@
         <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>2690</v>
+        <v>32.29</v>
       </c>
       <c r="F41">
-        <v>32.29</v>
+        <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>20</v>
       </c>
@@ -1582,25 +1417,19 @@
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42">
-        <v>2690</v>
-      </c>
-      <c r="F42" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
-      <c r="I42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>22</v>
       </c>
@@ -1611,25 +1440,19 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>2690</v>
-      </c>
-      <c r="F43" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>23</v>
       </c>
@@ -1640,25 +1463,19 @@
         <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44">
-        <v>2690</v>
-      </c>
-      <c r="F44" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="I44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>24</v>
       </c>
@@ -1669,25 +1486,19 @@
         <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45">
-        <v>2690</v>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>25</v>
       </c>
@@ -1698,25 +1509,19 @@
         <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46">
-        <v>2690</v>
-      </c>
-      <c r="F46" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="I46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>26</v>
       </c>
@@ -1727,22 +1532,1576 @@
         <v>55</v>
       </c>
       <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>22.5</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>26.5</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>29.29</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>25.32</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>25.73</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>26.3</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>9</v>
       </c>
-      <c r="E47">
-        <v>2690</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="C54">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>33.79</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>31.68</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>15</v>
       </c>
-      <c r="G47" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="C60">
+        <v>35</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>35</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>14</v>
+      </c>
+      <c r="C62">
+        <v>55</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>32.06</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>15</v>
+      </c>
+      <c r="C63">
+        <v>55</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>24.2</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>55</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>36.83</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>55</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>25.15</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>55</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>55</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>21</v>
+      </c>
+      <c r="C68">
+        <v>55</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>22</v>
+      </c>
+      <c r="C69">
+        <v>55</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>23</v>
+      </c>
+      <c r="C70">
+        <v>55</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>24</v>
+      </c>
+      <c r="C71">
+        <v>55</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>25</v>
+      </c>
+      <c r="C72">
+        <v>55</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>33.18</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>26</v>
+      </c>
+      <c r="C73">
+        <v>55</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>35</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>24.64</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>35</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>28.05</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>35</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>22.25</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>25.3</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>35</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>35</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>35</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>27.22</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>35</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>35</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>15</v>
+      </c>
+      <c r="C85">
+        <v>35</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>16</v>
+      </c>
+      <c r="C86">
+        <v>35</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>14</v>
+      </c>
+      <c r="C87">
+        <v>55</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>30.04</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>55</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>22</v>
+      </c>
+      <c r="C89">
+        <v>55</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>23</v>
+      </c>
+      <c r="C90">
+        <v>55</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>24</v>
+      </c>
+      <c r="C91">
+        <v>55</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>25</v>
+      </c>
+      <c r="C92">
+        <v>55</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>26</v>
+      </c>
+      <c r="C93">
+        <v>55</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>39.51</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>35</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>35</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>35</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>35</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>35</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>35</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>35</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>34.29</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>35</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>14</v>
+      </c>
+      <c r="C102">
+        <v>35</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>35</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>16</v>
+      </c>
+      <c r="C104">
+        <v>35</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>35</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>35</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>37.75</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>35</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>35.54</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>35</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>33.29</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>35</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>35</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>28.2</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>35</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>35</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>35</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>15</v>
+      </c>
+      <c r="C114">
+        <v>35</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>16</v>
+      </c>
+      <c r="C115">
+        <v>35</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>16</v>
+      </c>
+      <c r="C116">
+        <v>55</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>17</v>
+      </c>
+      <c r="C117">
+        <v>55</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>19</v>
+      </c>
+      <c r="C118">
+        <v>55</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>21</v>
+      </c>
+      <c r="C119">
+        <v>55</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>24</v>
+      </c>
+      <c r="C120">
+        <v>55</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>16</v>
+      </c>
+      <c r="C121">
+        <v>55</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>17</v>
+      </c>
+      <c r="C122">
+        <v>55</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>30.45</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>19</v>
+      </c>
+      <c r="C123">
+        <v>55</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>21</v>
+      </c>
+      <c r="C124">
+        <v>55</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>24</v>
+      </c>
+      <c r="C125">
+        <v>55</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/kim2020viral/kim2020viral.xlsx
+++ b/data/kim2020viral/kim2020viral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fionaxiao/Desktop/shedding-hub/data/kim2020viral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC41A98-4959-1641-ADC6-15B9E8AA4872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A7485-E93E-264F-AC05-C8F5BC235C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="760" windowWidth="27240" windowHeight="16240" xr2:uid="{4A3A77D9-3CB4-3B4A-85E5-EADE8C06CB15}"/>
   </bookViews>
@@ -65,25 +65,25 @@
     <t>Value</t>
   </si>
   <si>
-    <t>swab RdRp estimated viral copy/mL</t>
-  </si>
-  <si>
     <t>ud</t>
   </si>
   <si>
-    <t>sputum RdRp estimated viral copy/mL</t>
+    <t>swab_SARSCoV2_E_Ct</t>
   </si>
   <si>
-    <t>swab E</t>
+    <t>sputum_SARSCoV2_E_Ct</t>
   </si>
   <si>
-    <t>sputum E</t>
+    <t>stool_SARSCoV2_RdRp_Ct</t>
   </si>
   <si>
-    <t>stool RdRp</t>
+    <t>stool_SARSCoV2_E_Ct</t>
   </si>
   <si>
-    <t>stool E</t>
+    <t>sputum_SARSCoV2_RdRp_VL</t>
+  </si>
+  <si>
+    <t>swab_SARSCoV2_RdRp_VL</t>
   </si>
 </sst>
 </file>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA1B1AD-FEF0-AB4A-965C-49BDF551413D}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="M89" sqref="M89"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -730,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -776,13 +776,13 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -799,13 +799,13 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -868,13 +868,13 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -897,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -914,13 +914,13 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -937,13 +937,13 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -960,13 +960,13 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -983,13 +983,13 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1006,13 +1006,13 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1029,13 +1029,13 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1075,13 +1075,13 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1213,13 +1213,13 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1328,13 +1328,13 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1351,13 +1351,13 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1374,13 +1374,13 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1403,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1420,13 +1420,13 @@
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1443,13 +1443,13 @@
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1466,13 +1466,13 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1489,13 +1489,13 @@
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1512,13 +1512,13 @@
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1535,13 +1535,13 @@
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1675,13 +1675,13 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
         <v>10</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1695,13 +1695,13 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
         <v>10</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1741,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1755,13 +1755,13 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
         <v>10</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -1795,13 +1795,13 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
         <v>10</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -1815,13 +1815,13 @@
         <v>5</v>
       </c>
       <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
         <v>10</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -1841,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -1861,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -1881,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -1901,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -1915,13 +1915,13 @@
         <v>6</v>
       </c>
       <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
         <v>10</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-      <c r="G66" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -1935,13 +1935,13 @@
         <v>6</v>
       </c>
       <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
         <v>10</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-      <c r="G67" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -1955,13 +1955,13 @@
         <v>6</v>
       </c>
       <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
         <v>10</v>
-      </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-      <c r="G68" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -1975,13 +1975,13 @@
         <v>6</v>
       </c>
       <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
         <v>10</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -1995,13 +1995,13 @@
         <v>6</v>
       </c>
       <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
         <v>10</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-      <c r="G70" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2015,13 +2015,13 @@
         <v>6</v>
       </c>
       <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
         <v>10</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-      <c r="G71" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2041,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2055,13 +2055,13 @@
         <v>6</v>
       </c>
       <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
         <v>10</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-      <c r="G73" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2175,13 +2175,13 @@
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2195,13 +2195,13 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2235,13 +2235,13 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2255,13 +2255,13 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2275,13 +2275,13 @@
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2295,13 +2295,13 @@
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2315,13 +2315,13 @@
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2341,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2355,13 +2355,13 @@
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F88">
         <v>2</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2375,13 +2375,13 @@
         <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89">
         <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2395,13 +2395,13 @@
         <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F90">
         <v>2</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2415,13 +2415,13 @@
         <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91">
         <v>2</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2435,13 +2435,13 @@
         <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F92">
         <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2461,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2475,13 +2475,13 @@
         <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2495,13 +2495,13 @@
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -2515,13 +2515,13 @@
         <v>5</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -2555,13 +2555,13 @@
         <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -2575,13 +2575,13 @@
         <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -2601,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -2635,13 +2635,13 @@
         <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -2655,13 +2655,13 @@
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -2675,13 +2675,13 @@
         <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -2775,13 +2775,13 @@
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -2801,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -2815,13 +2815,13 @@
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -2835,13 +2835,13 @@
         <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -2855,13 +2855,13 @@
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -2875,13 +2875,13 @@
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -2895,13 +2895,13 @@
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -2915,13 +2915,13 @@
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F116">
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -2935,13 +2935,13 @@
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F117">
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -2955,13 +2955,13 @@
         <v>6</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F118">
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -2975,13 +2975,13 @@
         <v>6</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F119">
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -2995,13 +2995,13 @@
         <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F120">
         <v>2</v>
       </c>
       <c r="G120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -3015,13 +3015,13 @@
         <v>6</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F121">
         <v>2</v>
       </c>
       <c r="G121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -3041,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -3055,13 +3055,13 @@
         <v>6</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F123">
         <v>2</v>
       </c>
       <c r="G123" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -3075,13 +3075,13 @@
         <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F124">
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -3095,13 +3095,13 @@
         <v>6</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F125">
         <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/kim2020viral/kim2020viral.xlsx
+++ b/data/kim2020viral/kim2020viral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fionaxiao/Desktop/shedding-hub/data/kim2020viral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A7485-E93E-264F-AC05-C8F5BC235C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB48490-765E-D343-881D-50C6DD53A6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="760" windowWidth="27240" windowHeight="16240" xr2:uid="{4A3A77D9-3CB4-3B4A-85E5-EADE8C06CB15}"/>
   </bookViews>
@@ -68,22 +68,22 @@
     <t>ud</t>
   </si>
   <si>
-    <t>swab_SARSCoV2_E_Ct</t>
+    <t>swab_SARSCoV2_RdRp</t>
   </si>
   <si>
-    <t>sputum_SARSCoV2_E_Ct</t>
+    <t>sputum_SARSCoV2_RdRp</t>
   </si>
   <si>
-    <t>stool_SARSCoV2_RdRp_Ct</t>
+    <t>swab_SARSCoV2_E</t>
   </si>
   <si>
-    <t>stool_SARSCoV2_E_Ct</t>
+    <t>sputum_SARSCoV2_E</t>
   </si>
   <si>
-    <t>sputum_SARSCoV2_RdRp_VL</t>
+    <t>stool_SARSCoV2_RdRp</t>
   </si>
   <si>
-    <t>swab_SARSCoV2_RdRp_VL</t>
+    <t>stool_SARSCoV2_E</t>
   </si>
 </sst>
 </file>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA1B1AD-FEF0-AB4A-965C-49BDF551413D}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="140" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -897,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -920,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -989,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1035,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1081,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1403,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1426,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1449,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1495,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1518,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1541,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1701,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1741,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -1841,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -1861,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -1881,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -1901,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -1921,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -1941,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -1961,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2001,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2021,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2041,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2061,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2341,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="G87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="G88" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2401,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="G90" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="G91" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2441,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2461,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -2581,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -2601,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -2661,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -2801,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -2841,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -2921,7 +2921,7 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -2941,7 +2941,7 @@
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -2961,7 +2961,7 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -2981,7 +2981,7 @@
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -3001,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -3021,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -3041,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -3061,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -3081,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -3101,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
